--- a/SeleniumFramework/excelfile/Application_Data.xlsx
+++ b/SeleniumFramework/excelfile/Application_Data.xlsx
@@ -12,17 +12,13 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
   <si>
     <t>admin</t>
-  </si>
-  <si>
-    <t>admin1</t>
   </si>
 </sst>
 </file>
@@ -362,7 +358,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
